--- a/data/trans_orig/Q4501_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q4501_R-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>70072</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54992</v>
+        <v>55322</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>85884</v>
+        <v>87502</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1199574000030603</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09414249792838728</v>
+        <v>0.09470599615404696</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1470265613018655</v>
+        <v>0.1497966981315172</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>178</v>
@@ -764,19 +764,19 @@
         <v>184848</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>160977</v>
+        <v>160672</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>207921</v>
+        <v>210087</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.200413064771511</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1745323874872551</v>
+        <v>0.1742022450672562</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2254292538052907</v>
+        <v>0.227777349096959</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>243</v>
@@ -785,19 +785,19 @@
         <v>254920</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>226879</v>
+        <v>227306</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>287071</v>
+        <v>288032</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1692160654399097</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1506028948655629</v>
+        <v>0.1508863933963937</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1905578951794516</v>
+        <v>0.1911961699255202</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>40587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29514</v>
+        <v>29802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54645</v>
+        <v>55404</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06948081364220395</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05052611377302594</v>
+        <v>0.05101879979013054</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09354834164034399</v>
+        <v>0.09484658596845369</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>123</v>
@@ -835,19 +835,19 @@
         <v>126172</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>108475</v>
+        <v>105837</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>150102</v>
+        <v>148875</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.13679683318848</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1176095952084638</v>
+        <v>0.1147490160993772</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.162741123534945</v>
+        <v>0.1614108646587961</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>164</v>
@@ -856,19 +856,19 @@
         <v>166759</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>142900</v>
+        <v>142412</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>192257</v>
+        <v>194025</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1106947827879875</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09485753257906243</v>
+        <v>0.09453356576714875</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1276207786973501</v>
+        <v>0.1287938751175552</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>115221</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>96338</v>
+        <v>97096</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>135368</v>
+        <v>136209</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1972490959956242</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1649217602605436</v>
+        <v>0.1662198908588776</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2317381688249363</v>
+        <v>0.2331791391066564</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>209</v>
@@ -906,19 +906,19 @@
         <v>216964</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>192550</v>
+        <v>192683</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>243387</v>
+        <v>244444</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2352337716658091</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2087636268184223</v>
+        <v>0.208908309421054</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2638820579879974</v>
+        <v>0.2650276158769385</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>323</v>
@@ -927,19 +927,19 @@
         <v>332185</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>297553</v>
+        <v>304020</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>362003</v>
+        <v>369310</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2205050648071401</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1975163438133573</v>
+        <v>0.201809163661715</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2402979847807063</v>
+        <v>0.245148894095618</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>77249</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62425</v>
+        <v>62679</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>94889</v>
+        <v>95817</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1322445272668457</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1068660236641955</v>
+        <v>0.107301027260424</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1624424800264875</v>
+        <v>0.164030591250758</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -977,19 +977,19 @@
         <v>89775</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72116</v>
+        <v>71525</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108907</v>
+        <v>108210</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09733514814088387</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07818908769367436</v>
+        <v>0.07754844718626357</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1180775417301614</v>
+        <v>0.1173215910373167</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>160</v>
@@ -998,19 +998,19 @@
         <v>167025</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>139858</v>
+        <v>142250</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>190352</v>
+        <v>192830</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1108713967119889</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0928380558089973</v>
+        <v>0.09442611005452987</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1263558416045132</v>
+        <v>0.1280006123981292</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>281012</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>256985</v>
+        <v>256003</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>304909</v>
+        <v>304107</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4810681630922658</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4399371985870105</v>
+        <v>0.438255973800953</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5219791547052065</v>
+        <v>0.520605661588183</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>289</v>
@@ -1048,19 +1048,19 @@
         <v>304574</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>277142</v>
+        <v>274658</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>333729</v>
+        <v>330752</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.330221182233316</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3004788214386993</v>
+        <v>0.2977863891367074</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3618314524388546</v>
+        <v>0.3586034529675715</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>569</v>
@@ -1069,19 +1069,19 @@
         <v>585586</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>549746</v>
+        <v>541682</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>625216</v>
+        <v>620764</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3887126902529738</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3649223866120573</v>
+        <v>0.359569195351554</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4150192706099249</v>
+        <v>0.4120639094038466</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>139566</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>116516</v>
+        <v>117805</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165566</v>
+        <v>163126</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1296026166493996</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1081982972457111</v>
+        <v>0.1093952002767706</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1537464568035873</v>
+        <v>0.1514807949293127</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>271</v>
@@ -1194,19 +1194,19 @@
         <v>281560</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>256053</v>
+        <v>252894</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>311628</v>
+        <v>311125</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2665038076557547</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2423604917388558</v>
+        <v>0.239370967533522</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2949643953193681</v>
+        <v>0.2944882091680635</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>404</v>
@@ -1215,19 +1215,19 @@
         <v>421126</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>384454</v>
+        <v>386389</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>460205</v>
+        <v>459785</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1973992849072104</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1802096812580637</v>
+        <v>0.1811165207427062</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2157171203083579</v>
+        <v>0.2155204460773541</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>110381</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89582</v>
+        <v>91414</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>130672</v>
+        <v>131337</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1025011192131809</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08318649791509235</v>
+        <v>0.08488772631015033</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1213433290917785</v>
+        <v>0.121961433241223</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>215</v>
@@ -1265,19 +1265,19 @@
         <v>220979</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>195874</v>
+        <v>196857</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>249001</v>
+        <v>248277</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.209162104692874</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1854001077544396</v>
+        <v>0.1863304636912082</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2356859839990594</v>
+        <v>0.2350004459617873</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>322</v>
@@ -1286,19 +1286,19 @@
         <v>331360</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>299476</v>
+        <v>301754</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>365963</v>
+        <v>367496</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1553221311814569</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1403769898574703</v>
+        <v>0.1414447718935159</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1715420852403239</v>
+        <v>0.172260539566572</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>272796</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>246471</v>
+        <v>244616</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>301528</v>
+        <v>300993</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.253321217900854</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2288756987508365</v>
+        <v>0.2271533495952892</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2800026929543575</v>
+        <v>0.2795058685584423</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>235</v>
@@ -1336,19 +1336,19 @@
         <v>239761</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>212247</v>
+        <v>214629</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>267583</v>
+        <v>266256</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2269402264159317</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2008972581464893</v>
+        <v>0.2031518283707421</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2532743078038991</v>
+        <v>0.2520184394219929</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>505</v>
@@ -1357,19 +1357,19 @@
         <v>512557</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>474901</v>
+        <v>469122</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>553723</v>
+        <v>552013</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.240256734568986</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2226057139372191</v>
+        <v>0.2198971737023184</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2595530341948961</v>
+        <v>0.2587514610088504</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>185584</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>160762</v>
+        <v>163393</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>210126</v>
+        <v>215835</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1723358798103292</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1492855509180596</v>
+        <v>0.1517285551772218</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1951254337605521</v>
+        <v>0.2004268943945234</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -1407,19 +1407,19 @@
         <v>90926</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74665</v>
+        <v>74094</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>109986</v>
+        <v>111253</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08606362765166115</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07067274783220247</v>
+        <v>0.07013226456936565</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1041044631304486</v>
+        <v>0.1053039984286645</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>270</v>
@@ -1428,19 +1428,19 @@
         <v>276510</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>246130</v>
+        <v>243506</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>305743</v>
+        <v>308471</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1296118449318897</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1153715859412385</v>
+        <v>0.1141413546392302</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1433144936523377</v>
+        <v>0.1445933800266662</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>368549</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>339727</v>
+        <v>336256</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>400912</v>
+        <v>399630</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3422391664262363</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3154748346376204</v>
+        <v>0.3122514718407207</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3722919006845298</v>
+        <v>0.3711007581962252</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>218</v>
@@ -1478,19 +1478,19 @@
         <v>223269</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>197349</v>
+        <v>199815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>250205</v>
+        <v>250946</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2113302335837785</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1867955181966117</v>
+        <v>0.1891298545046318</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2368257773579284</v>
+        <v>0.2375270503421466</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>580</v>
@@ -1499,19 +1499,19 @@
         <v>591818</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>550638</v>
+        <v>547895</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>632113</v>
+        <v>630453</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.277410004410457</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2581067912913911</v>
+        <v>0.2568213038692683</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2962976463365261</v>
+        <v>0.2955195915980314</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>146918</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>125827</v>
+        <v>123964</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>170392</v>
+        <v>170188</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1310945530482408</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1122754698140272</v>
+        <v>0.1106131660437865</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1520405484421279</v>
+        <v>0.1518584372112082</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>313</v>
@@ -1624,19 +1624,19 @@
         <v>321548</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>290664</v>
+        <v>292315</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>350221</v>
+        <v>352466</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3241887333416501</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.293050729280788</v>
+        <v>0.2947158217213786</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.353097333361249</v>
+        <v>0.3553609979672654</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>455</v>
@@ -1645,19 +1645,19 @@
         <v>468466</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>431026</v>
+        <v>433933</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>505298</v>
+        <v>506157</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2217532613878465</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2040309509016013</v>
+        <v>0.2054070426663809</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.239188421331706</v>
+        <v>0.2395947489969505</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>168152</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>144465</v>
+        <v>144420</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192400</v>
+        <v>193412</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1500420662258947</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1289063085992537</v>
+        <v>0.1288664395091845</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.171679010615755</v>
+        <v>0.1725813768482337</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>224</v>
@@ -1695,19 +1695,19 @@
         <v>226665</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>201160</v>
+        <v>201065</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>252538</v>
+        <v>253368</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2285263680905361</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2028124976048189</v>
+        <v>0.2027167801876948</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2546117111563254</v>
+        <v>0.2554486063560603</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>394</v>
@@ -1716,19 +1716,19 @@
         <v>394817</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>359558</v>
+        <v>357685</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>433911</v>
+        <v>432796</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1868908486240608</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1702007793565853</v>
+        <v>0.1693139515457124</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2053966554596375</v>
+        <v>0.2048687588629796</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>265530</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>238427</v>
+        <v>236737</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>295534</v>
+        <v>293868</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2369324975169024</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2127488885212987</v>
+        <v>0.2112404209498905</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2637051936123434</v>
+        <v>0.2622184823180765</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>194</v>
@@ -1766,19 +1766,19 @@
         <v>194335</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>170834</v>
+        <v>170571</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>219652</v>
+        <v>220924</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1959306091766017</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1722367970604214</v>
+        <v>0.1719722611414791</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2214555764021014</v>
+        <v>0.222738424293386</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>456</v>
@@ -1787,19 +1787,19 @@
         <v>459865</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>420973</v>
+        <v>420115</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>499246</v>
+        <v>496179</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.217681900576238</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1992722588037604</v>
+        <v>0.1988659265971479</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2363234605793356</v>
+        <v>0.2348719260709249</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>154787</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>130361</v>
+        <v>131976</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>178408</v>
+        <v>177446</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1381169115325106</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1163210186656316</v>
+        <v>0.1177624962287932</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1591939231157941</v>
+        <v>0.1583349254751839</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>75</v>
@@ -1837,19 +1837,19 @@
         <v>76613</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60995</v>
+        <v>60890</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>97118</v>
+        <v>94414</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07724172035511169</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06149566186062182</v>
+        <v>0.06139033436711035</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09791554670844821</v>
+        <v>0.09518898637608204</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>226</v>
@@ -1858,19 +1858,19 @@
         <v>231400</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>200018</v>
+        <v>204596</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>261996</v>
+        <v>262044</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1095356969475679</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09468072372779919</v>
+        <v>0.09684763827598643</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1240185300355132</v>
+        <v>0.1240415958170529</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>385312</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>354517</v>
+        <v>355534</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>420074</v>
+        <v>419604</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3438139716764514</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3163355325458513</v>
+        <v>0.3172433182589098</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3748322125573782</v>
+        <v>0.3744127209943275</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>174</v>
@@ -1908,19 +1908,19 @@
         <v>172694</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>148425</v>
+        <v>148398</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>198753</v>
+        <v>194870</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1741125690361005</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1496436015848312</v>
+        <v>0.1496165702505691</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2003854323569849</v>
+        <v>0.1964705354430244</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>551</v>
@@ -1929,19 +1929,19 @@
         <v>558006</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>521735</v>
+        <v>520036</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>603059</v>
+        <v>600783</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2641382924642867</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2469688968733563</v>
+        <v>0.2461649259780218</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.28546464333552</v>
+        <v>0.2843872901395393</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>75808</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>59816</v>
+        <v>61701</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93190</v>
+        <v>92373</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1695168140606853</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1337557364779401</v>
+        <v>0.1379716370989398</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2083845434715837</v>
+        <v>0.2065574854421616</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>124</v>
@@ -2054,19 +2054,19 @@
         <v>126605</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>110562</v>
+        <v>109607</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>146676</v>
+        <v>144141</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.371102474155528</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3240779637725184</v>
+        <v>0.3212794066348298</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4299371462913972</v>
+        <v>0.4225054652132442</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>199</v>
@@ -2075,19 +2075,19 @@
         <v>202413</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>178370</v>
+        <v>176161</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>228199</v>
+        <v>226642</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2567520653169172</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2262546990610456</v>
+        <v>0.2234529720853629</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2894613372759055</v>
+        <v>0.2874860371809008</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>101830</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>84370</v>
+        <v>84413</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>122224</v>
+        <v>120266</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2277050491667872</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1886631477226818</v>
+        <v>0.1887582321625753</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2733096891724785</v>
+        <v>0.2689307748476006</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>92</v>
@@ -2125,19 +2125,19 @@
         <v>93256</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>77133</v>
+        <v>77280</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>110331</v>
+        <v>110040</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2733520786964952</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2260926635844669</v>
+        <v>0.2265224768996948</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3234013256401576</v>
+        <v>0.3225486138032109</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>188</v>
@@ -2146,19 +2146,19 @@
         <v>195086</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>171353</v>
+        <v>173109</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>218925</v>
+        <v>220414</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.247458587629053</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.217354781797741</v>
+        <v>0.2195822096959492</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2776973103480196</v>
+        <v>0.2795868054874993</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>104327</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>86540</v>
+        <v>87249</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>122453</v>
+        <v>121742</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2332894678074125</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1935160204138106</v>
+        <v>0.1951005611973586</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2738214952857513</v>
+        <v>0.2722313051044442</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>65</v>
@@ -2196,19 +2196,19 @@
         <v>63979</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>50827</v>
+        <v>50784</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>81785</v>
+        <v>78653</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1875333546023809</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1489834473112732</v>
+        <v>0.1488582917330838</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2397280692970305</v>
+        <v>0.2305474426466557</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>170</v>
@@ -2217,19 +2217,19 @@
         <v>168306</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>145976</v>
+        <v>147237</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>192182</v>
+        <v>192088</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2134887238950153</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1851648910670555</v>
+        <v>0.1867636359304297</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2437752960208643</v>
+        <v>0.2436564254042493</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>56280</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>42882</v>
+        <v>42624</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>71643</v>
+        <v>72517</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1258504981012453</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09588939008576915</v>
+        <v>0.09531408346110104</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1602042526702157</v>
+        <v>0.1621581775786167</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -2267,19 +2267,19 @@
         <v>12808</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7262</v>
+        <v>7785</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21084</v>
+        <v>20650</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03754189027800624</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02128560867826766</v>
+        <v>0.02281866689803054</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06180250956768973</v>
+        <v>0.06052813236773687</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -2288,19 +2288,19 @@
         <v>69088</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54409</v>
+        <v>54085</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>86538</v>
+        <v>86440</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08763536123127211</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0690156330238869</v>
+        <v>0.06860480857006376</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1097698450495806</v>
+        <v>0.1096451549356901</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>108955</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>91260</v>
+        <v>91460</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>128529</v>
+        <v>129267</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2436381708638697</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2040702349603949</v>
+        <v>0.2045177141272962</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2874091097115795</v>
+        <v>0.2890586011186802</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>44</v>
@@ -2338,19 +2338,19 @@
         <v>44511</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>31861</v>
+        <v>33033</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>57598</v>
+        <v>57891</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1304702022675896</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09339155655595276</v>
+        <v>0.0968254310248534</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.168830932846901</v>
+        <v>0.1696895356366866</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>151</v>
@@ -2359,19 +2359,19 @@
         <v>153466</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>132204</v>
+        <v>131844</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>178347</v>
+        <v>175728</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1946652619277423</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1676955628091975</v>
+        <v>0.16723868798699</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2262256887676501</v>
+        <v>0.2229039869326462</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>432363</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>397071</v>
+        <v>392945</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>472154</v>
+        <v>476026</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1339035821328</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1229736423769466</v>
+        <v>0.1216957905172519</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.146226708208588</v>
+        <v>0.1474261294067569</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>886</v>
@@ -2484,19 +2484,19 @@
         <v>914560</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>859330</v>
+        <v>865304</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>965082</v>
+        <v>967253</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2761486117427475</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2594719536482551</v>
+        <v>0.261275970828776</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2914034749373002</v>
+        <v>0.2920589812810022</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1301</v>
@@ -2505,19 +2505,19 @@
         <v>1346924</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1284043</v>
+        <v>1282990</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1410317</v>
+        <v>1414379</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2059278077130773</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1963141726697362</v>
+        <v>0.1961531169453538</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2156198964257604</v>
+        <v>0.2162409729295769</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>420949</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>381508</v>
+        <v>385696</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>458296</v>
+        <v>462630</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1303685862850233</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1181536405399104</v>
+        <v>0.1194505634951634</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1419349241482412</v>
+        <v>0.1432771820796209</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>654</v>
@@ -2555,19 +2555,19 @@
         <v>667072</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>622294</v>
+        <v>619332</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>711645</v>
+        <v>714848</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.201420360170635</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1878997911828622</v>
+        <v>0.1870053381260233</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2148790453345654</v>
+        <v>0.215846216874554</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1068</v>
@@ -2576,19 +2576,19 @@
         <v>1088021</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1028864</v>
+        <v>1026270</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1148482</v>
+        <v>1149195</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1663448801790792</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.157300442490747</v>
+        <v>0.1569039128966339</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1755885029382887</v>
+        <v>0.1756976194468049</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>757874</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>707952</v>
+        <v>704549</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>808891</v>
+        <v>800703</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.234714642966081</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2192539612103186</v>
+        <v>0.2182000751756502</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2505147557312274</v>
+        <v>0.2479788701778807</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>703</v>
@@ -2626,19 +2626,19 @@
         <v>715038</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>670043</v>
+        <v>669280</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>763663</v>
+        <v>766245</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2159035873821731</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2023173241223584</v>
+        <v>0.2020869630837322</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2305855093005093</v>
+        <v>0.2313653488889464</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1454</v>
@@ -2647,19 +2647,19 @@
         <v>1472912</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1402077</v>
+        <v>1402545</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1538307</v>
+        <v>1546511</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2251898693097102</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2143601429510711</v>
+        <v>0.2144316047385705</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2351880240807032</v>
+        <v>0.2364422795767499</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>473902</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>432990</v>
+        <v>432335</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>517209</v>
+        <v>513463</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1467680328110346</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1340977383597702</v>
+        <v>0.133894865136306</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1601804860464722</v>
+        <v>0.1590202131456142</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>263</v>
@@ -2697,19 +2697,19 @@
         <v>270122</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>242448</v>
+        <v>241938</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>304396</v>
+        <v>301406</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08156234372382752</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07320627116365702</v>
+        <v>0.07305244632317968</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09191135626868824</v>
+        <v>0.09100863840629542</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>723</v>
@@ -2718,19 +2718,19 @@
         <v>744023</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>691904</v>
+        <v>696447</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>799039</v>
+        <v>798491</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1137518404504827</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1057834889317837</v>
+        <v>0.1064780466869892</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.122163058932712</v>
+        <v>0.1220793443993417</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>1143827</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1085970</v>
+        <v>1093204</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1195379</v>
+        <v>1201268</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3542451558050609</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3363265288882888</v>
+        <v>0.3385669269104297</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3702105817493621</v>
+        <v>0.372034532994417</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>725</v>
@@ -2768,19 +2768,19 @@
         <v>745049</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>695291</v>
+        <v>695734</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>793173</v>
+        <v>796156</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2249650969806169</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2099409323485883</v>
+        <v>0.2100745849898156</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2394959515799444</v>
+        <v>0.2403968736034026</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1851</v>
@@ -2789,19 +2789,19 @@
         <v>1888876</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1813140</v>
+        <v>1814890</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1968653</v>
+        <v>1964932</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2887856023476506</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2772064275637592</v>
+        <v>0.2774740715390401</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3009825158500026</v>
+        <v>0.3004135922894646</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>100412</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>82431</v>
+        <v>81943</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>121010</v>
+        <v>120496</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0962807568265153</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0790394646449661</v>
+        <v>0.07857227422687113</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.116031422503805</v>
+        <v>0.1155387935074978</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>229</v>
@@ -3154,19 +3154,19 @@
         <v>252791</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>221399</v>
+        <v>225286</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>281871</v>
+        <v>280014</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2263864912648018</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1982737853750241</v>
+        <v>0.2017548138254454</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2524293810185546</v>
+        <v>0.2507664543535075</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>325</v>
@@ -3175,19 +3175,19 @@
         <v>353202</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>315787</v>
+        <v>315967</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>389011</v>
+        <v>390002</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1635545554693013</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1462290284555816</v>
+        <v>0.1463121705724157</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1801360623638539</v>
+        <v>0.1805949512969774</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>83223</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>65511</v>
+        <v>66231</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102673</v>
+        <v>105866</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07979882025983429</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0628155818764064</v>
+        <v>0.06350585015536191</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09844903286567415</v>
+        <v>0.101510849606677</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>139</v>
@@ -3225,19 +3225,19 @@
         <v>146214</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>124510</v>
+        <v>124675</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>170609</v>
+        <v>169445</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1309417069481012</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1115044724889952</v>
+        <v>0.1116530022471885</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1527884736752028</v>
+        <v>0.1517463341016479</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>215</v>
@@ -3246,19 +3246,19 @@
         <v>229436</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>197947</v>
+        <v>198297</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>256475</v>
+        <v>258090</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.106243283111003</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09166150472613117</v>
+        <v>0.09182393345800731</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1187636683740479</v>
+        <v>0.1195117519752373</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>190728</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>166997</v>
+        <v>166818</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>216644</v>
+        <v>217879</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.182881745462986</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1601264746619358</v>
+        <v>0.1599548932325135</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2077313978258481</v>
+        <v>0.2089156871602189</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>237</v>
@@ -3296,19 +3296,19 @@
         <v>251489</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>222010</v>
+        <v>225163</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>279400</v>
+        <v>284065</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2252204147012966</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.198821122349402</v>
+        <v>0.201644305053106</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2502167182717761</v>
+        <v>0.2543940530066914</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>421</v>
@@ -3317,19 +3317,19 @@
         <v>442217</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>403883</v>
+        <v>401793</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>485082</v>
+        <v>480587</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2047738098015695</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1870228483762233</v>
+        <v>0.1860552443676664</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2246231447461458</v>
+        <v>0.2225417952999068</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>116774</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>98635</v>
+        <v>96569</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>142011</v>
+        <v>138782</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1119703299987293</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09457698345375538</v>
+        <v>0.09259604082952273</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1361682570317758</v>
+        <v>0.1330728382882271</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>73</v>
@@ -3367,19 +3367,19 @@
         <v>82036</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64937</v>
+        <v>66320</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>102402</v>
+        <v>103013</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07346697312511179</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05815407231661016</v>
+        <v>0.05939258427061846</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09170640335338047</v>
+        <v>0.09225342477120378</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>184</v>
@@ -3388,19 +3388,19 @@
         <v>198810</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>171656</v>
+        <v>173695</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>227946</v>
+        <v>231154</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09206139140682022</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07948730583541622</v>
+        <v>0.08043140967249615</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1055532081928731</v>
+        <v>0.1070388287133268</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>551768</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>516192</v>
+        <v>517297</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>582387</v>
+        <v>586698</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5290683474519351</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4949556252345773</v>
+        <v>0.4960151832653773</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5584275216697974</v>
+        <v>0.5625611425973385</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>350</v>
@@ -3438,19 +3438,19 @@
         <v>384104</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>351884</v>
+        <v>353147</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>417551</v>
+        <v>417069</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3439844139606886</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3151298242951399</v>
+        <v>0.3162603687149456</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3739379613792235</v>
+        <v>0.3735055317676311</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>860</v>
@@ -3459,19 +3459,19 @@
         <v>935872</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>889529</v>
+        <v>892038</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>984283</v>
+        <v>986973</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4333669602113059</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4119069544293788</v>
+        <v>0.413068977276452</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4557838318072242</v>
+        <v>0.4570298266963078</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>90304</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74481</v>
+        <v>73451</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110883</v>
+        <v>110184</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09259187579270282</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07636864592064534</v>
+        <v>0.07531217737805723</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1136922481570392</v>
+        <v>0.1129757825724277</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>217</v>
@@ -3584,19 +3584,19 @@
         <v>232176</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>204983</v>
+        <v>205963</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>259966</v>
+        <v>260561</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2128022541325512</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1878781680919024</v>
+        <v>0.1887761198214124</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.238273165858384</v>
+        <v>0.2388182284196416</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>305</v>
@@ -3605,19 +3605,19 @@
         <v>322480</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>290130</v>
+        <v>287834</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>359486</v>
+        <v>357259</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1560640872557479</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1404085225271579</v>
+        <v>0.139297312059709</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1739730601000748</v>
+        <v>0.1728953870131727</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>91805</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>74470</v>
+        <v>74387</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>112148</v>
+        <v>109676</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0941312182574558</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07635739440363498</v>
+        <v>0.07627179457901757</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1149900328765748</v>
+        <v>0.1124554564661631</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>191</v>
@@ -3655,19 +3655,19 @@
         <v>206668</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>179912</v>
+        <v>179592</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>236818</v>
+        <v>231221</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1894227910345411</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1648992763627512</v>
+        <v>0.1646060396413381</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2170563798658599</v>
+        <v>0.2119267435375682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>279</v>
@@ -3676,19 +3676,19 @@
         <v>298473</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>268736</v>
+        <v>266351</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>333325</v>
+        <v>331588</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1444460657896205</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1300546890433133</v>
+        <v>0.1289006250614888</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1613127746390852</v>
+        <v>0.1604719388614878</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>240480</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>214429</v>
+        <v>211768</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>267596</v>
+        <v>267350</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2465736890849033</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2198620967600352</v>
+        <v>0.2171336982504328</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2743761223637095</v>
+        <v>0.2741240112910752</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>252</v>
@@ -3726,19 +3726,19 @@
         <v>266471</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>237760</v>
+        <v>239035</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>295718</v>
+        <v>294537</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.244235118837026</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2179199149073242</v>
+        <v>0.219088928402182</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2710416256852468</v>
+        <v>0.2699594317688286</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>480</v>
@@ -3747,19 +3747,19 @@
         <v>506951</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>465210</v>
+        <v>469427</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>545689</v>
+        <v>545496</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2453389019779631</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2251385033195177</v>
+        <v>0.2271790943656018</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2640862185506587</v>
+        <v>0.2639924837001093</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>141211</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>120697</v>
+        <v>118704</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>166678</v>
+        <v>166344</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1447888632483134</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1237556259096696</v>
+        <v>0.1217119114280409</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1709015392487025</v>
+        <v>0.1705587357182901</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>110</v>
@@ -3797,19 +3797,19 @@
         <v>119231</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>98611</v>
+        <v>99791</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>141008</v>
+        <v>139872</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1092821295862354</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09038273718820052</v>
+        <v>0.09146358882546637</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1292419489051972</v>
+        <v>0.128200487121761</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>244</v>
@@ -3818,19 +3818,19 @@
         <v>260442</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>231531</v>
+        <v>230892</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>292287</v>
+        <v>294288</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1260409736027955</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1120493325338452</v>
+        <v>0.1117400276967202</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1414524567307767</v>
+        <v>0.1424206902973573</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>411488</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>379587</v>
+        <v>378758</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>442657</v>
+        <v>446414</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4219143536166247</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.389205281333913</v>
+        <v>0.3883546730921233</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4538727114443633</v>
+        <v>0.4577248549431827</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>247</v>
@@ -3868,19 +3868,19 @@
         <v>266495</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>238787</v>
+        <v>236809</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>297740</v>
+        <v>296522</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2442577064096462</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2188612491431436</v>
+        <v>0.2170484800119134</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2728947020535269</v>
+        <v>0.2717784646756835</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>631</v>
@@ -3889,19 +3889,19 @@
         <v>677983</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>633550</v>
+        <v>633593</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>720990</v>
+        <v>722728</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3281099713738731</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3066064925538617</v>
+        <v>0.3066271325665418</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3489229390303775</v>
+        <v>0.3497641571871536</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>85589</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67449</v>
+        <v>69382</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>105679</v>
+        <v>105592</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09680422470728976</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07628727180228013</v>
+        <v>0.07847314111580553</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1195271724028511</v>
+        <v>0.1194281004525758</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>148</v>
@@ -4014,19 +4014,19 @@
         <v>157484</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>135666</v>
+        <v>135014</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>182101</v>
+        <v>182223</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1798180790589967</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.154905413958526</v>
+        <v>0.1541617498966452</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2079259526252842</v>
+        <v>0.2080651022546038</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>228</v>
@@ -4035,19 +4035,19 @@
         <v>243073</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>215370</v>
+        <v>214485</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>274820</v>
+        <v>273546</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1381142549272417</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1223734460203041</v>
+        <v>0.1218707315897097</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1561531328780036</v>
+        <v>0.1554290019678418</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>124033</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>104679</v>
+        <v>104283</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>147777</v>
+        <v>147677</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1402858571343332</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1183962026741578</v>
+        <v>0.1179484354375512</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1671414192341863</v>
+        <v>0.1670280378292748</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>155</v>
@@ -4085,19 +4085,19 @@
         <v>167150</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>141918</v>
+        <v>145030</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>190352</v>
+        <v>193473</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1908554246095532</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1620440978514429</v>
+        <v>0.1655979219776305</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2173473331846613</v>
+        <v>0.2209106041171119</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>273</v>
@@ -4106,19 +4106,19 @@
         <v>291183</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>259313</v>
+        <v>258571</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>325723</v>
+        <v>321477</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1654506971110507</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1473420569436807</v>
+        <v>0.146920109461276</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1850760133466478</v>
+        <v>0.1826638068313489</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>234914</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>206235</v>
+        <v>207649</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>262522</v>
+        <v>263403</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2656965578518388</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2332598983150249</v>
+        <v>0.2348589348732749</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2969224554958319</v>
+        <v>0.2979190076847276</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>229</v>
@@ -4156,19 +4156,19 @@
         <v>243863</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>216365</v>
+        <v>216057</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>271141</v>
+        <v>272499</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2784475721674729</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2470499211067195</v>
+        <v>0.2466975314656112</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3095933341191988</v>
+        <v>0.3111445080929016</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>449</v>
@@ -4177,19 +4177,19 @@
         <v>478777</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>442648</v>
+        <v>440629</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>517194</v>
+        <v>518404</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2720418214325685</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2515133272547636</v>
+        <v>0.2503660523978439</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2938704649260667</v>
+        <v>0.294557897945712</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>131629</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>109125</v>
+        <v>111524</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>152754</v>
+        <v>154372</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1488773718689619</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1234239998863741</v>
+        <v>0.1261372802079634</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1727706642165353</v>
+        <v>0.1746009998603621</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>81</v>
@@ -4227,19 +4227,19 @@
         <v>86257</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>70338</v>
+        <v>70102</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>107192</v>
+        <v>106702</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09848976980462075</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08031337183811084</v>
+        <v>0.08004352598339075</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1223938342075183</v>
+        <v>0.1218341802283178</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>207</v>
@@ -4248,19 +4248,19 @@
         <v>217886</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>190836</v>
+        <v>190283</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>246576</v>
+        <v>248245</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1238030830018284</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1084332279254</v>
+        <v>0.1081188433757611</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1401046952875982</v>
+        <v>0.1410528815228664</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>307979</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280553</v>
+        <v>277859</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>338580</v>
+        <v>338266</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3483359884375762</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3173165197859413</v>
+        <v>0.314269272222672</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3829470178227255</v>
+        <v>0.3825911446855947</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>208</v>
@@ -4298,19 +4298,19 @@
         <v>221041</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>195265</v>
+        <v>195345</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>246486</v>
+        <v>246717</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2523891543593564</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2229568918069776</v>
+        <v>0.2230484588080755</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2814420790423076</v>
+        <v>0.2817058573001082</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>493</v>
@@ -4319,19 +4319,19 @@
         <v>529021</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>491124</v>
+        <v>492560</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>570418</v>
+        <v>568374</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3005901435273107</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.279057503841586</v>
+        <v>0.2798729464076498</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3241119660452597</v>
+        <v>0.3229509218718894</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>88743</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>70811</v>
+        <v>70035</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>107618</v>
+        <v>109929</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1767584373729068</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1410425621392005</v>
+        <v>0.1394969950693511</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2143542428068463</v>
+        <v>0.2189572996410199</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>133</v>
@@ -4444,19 +4444,19 @@
         <v>149123</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>128821</v>
+        <v>129941</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>169934</v>
+        <v>173156</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3315907111673745</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2864477160652184</v>
+        <v>0.2889375112163967</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.377865632926249</v>
+        <v>0.385031368361169</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>213</v>
@@ -4465,19 +4465,19 @@
         <v>237866</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>207369</v>
+        <v>210066</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>265021</v>
+        <v>266667</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.249917532757843</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2178751920951675</v>
+        <v>0.2207089580230501</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2784481165938698</v>
+        <v>0.2801785023944983</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>75933</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>59728</v>
+        <v>59848</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>94722</v>
+        <v>95382</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1512438305196154</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1189659638798664</v>
+        <v>0.1192064056512022</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.188667448260573</v>
+        <v>0.1899833663661118</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>87</v>
@@ -4515,19 +4515,19 @@
         <v>94277</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>77503</v>
+        <v>76665</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>113823</v>
+        <v>114302</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.209635715873262</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1723356717388259</v>
+        <v>0.1704719118788565</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2530982633656253</v>
+        <v>0.2541624007712677</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>153</v>
@@ -4536,19 +4536,19 @@
         <v>170210</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>145477</v>
+        <v>146212</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>195760</v>
+        <v>197713</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1788343154075686</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1528477066895528</v>
+        <v>0.1536205359105285</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2056788056400802</v>
+        <v>0.2077304907792195</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>102576</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>84625</v>
+        <v>83973</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>122490</v>
+        <v>122240</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2043114524811356</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1685568188649818</v>
+        <v>0.1672578924162787</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2439758894858906</v>
+        <v>0.2434778250425985</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>71</v>
@@ -4586,19 +4586,19 @@
         <v>78625</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>64135</v>
+        <v>61831</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>97045</v>
+        <v>97764</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1748299172581705</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1426100731466241</v>
+        <v>0.1374877975525079</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2157890304262579</v>
+        <v>0.2173877044418649</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>167</v>
@@ -4607,19 +4607,19 @@
         <v>181201</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>155879</v>
+        <v>156977</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>207611</v>
+        <v>207728</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1903812659986044</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.163776850644403</v>
+        <v>0.1649305453331047</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2181301036023446</v>
+        <v>0.2182525734706428</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>50617</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36279</v>
+        <v>38440</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>66345</v>
+        <v>68062</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1008192969827989</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07226105369554565</v>
+        <v>0.07656458634056422</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.132146381014885</v>
+        <v>0.1355664096583235</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -4657,19 +4657,19 @@
         <v>23387</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15722</v>
+        <v>14826</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35342</v>
+        <v>32958</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05200275212440068</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03495926418235613</v>
+        <v>0.03296774128386194</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07858771199383965</v>
+        <v>0.07328651491677987</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>66</v>
@@ -4678,19 +4678,19 @@
         <v>74004</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>58318</v>
+        <v>57740</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95213</v>
+        <v>93297</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0777532127993463</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06127285552170765</v>
+        <v>0.06066589902206134</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1000371458121143</v>
+        <v>0.09802371140892281</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>184188</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>162278</v>
+        <v>162509</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>207121</v>
+        <v>208725</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3668669826435433</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3232264097478786</v>
+        <v>0.3236872819354515</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4125447904511644</v>
+        <v>0.4157390156245432</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>97</v>
@@ -4728,19 +4728,19 @@
         <v>104308</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>86210</v>
+        <v>87333</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>125230</v>
+        <v>125251</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2319409035767924</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1916959538899807</v>
+        <v>0.1941937780538769</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2784631611286321</v>
+        <v>0.2785083043450222</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>271</v>
@@ -4749,19 +4749,19 @@
         <v>288497</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>259078</v>
+        <v>258124</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>319207</v>
+        <v>319308</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3031136730366378</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2722046520843833</v>
+        <v>0.2712022587738722</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3353799174172564</v>
+        <v>0.3354857478717702</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>365047</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>324872</v>
+        <v>329844</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>401237</v>
+        <v>409247</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1072282229796275</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09542713423066057</v>
+        <v>0.09688755559330911</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1178585245753605</v>
+        <v>0.1202112334207651</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>727</v>
@@ -4874,19 +4874,19 @@
         <v>791574</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>743489</v>
+        <v>736865</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>842116</v>
+        <v>844605</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2240393325148725</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2104298939818654</v>
+        <v>0.2085550533395979</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.238344346810142</v>
+        <v>0.2390488258205293</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1071</v>
@@ -4895,19 +4895,19 @@
         <v>1156621</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1099441</v>
+        <v>1093704</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1230797</v>
+        <v>1229968</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1667180652898526</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1584760040503333</v>
+        <v>0.1576491444539972</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1774099722916759</v>
+        <v>0.1772904529790064</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>374994</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>336397</v>
+        <v>339991</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>414712</v>
+        <v>414747</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1101498746902117</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09881246638160535</v>
+        <v>0.09986823359893193</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1218167462772985</v>
+        <v>0.1218270062976387</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>572</v>
@@ -4945,19 +4945,19 @@
         <v>614310</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>567085</v>
+        <v>563397</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>660921</v>
+        <v>658730</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1738682807171004</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1605023423717432</v>
+        <v>0.1594583958745716</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1870608325585908</v>
+        <v>0.1864406217824172</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>920</v>
@@ -4966,19 +4966,19 @@
         <v>989303</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>930079</v>
+        <v>934549</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1047443</v>
+        <v>1053002</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1426005374900098</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1340638683583472</v>
+        <v>0.1347080718753964</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.15098097471225</v>
+        <v>0.1517822749110826</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>768699</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>714524</v>
+        <v>718415</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>820480</v>
+        <v>818165</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2257960360406634</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2098826981388525</v>
+        <v>0.2110257538161641</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2410062242013854</v>
+        <v>0.240326140576815</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>789</v>
@@ -5016,19 +5016,19 @@
         <v>840447</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>784045</v>
+        <v>791406</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>890709</v>
+        <v>892202</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2378719691865102</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2219084632499994</v>
+        <v>0.2239920192290985</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.252097751592269</v>
+        <v>0.252520355810682</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1517</v>
@@ -5037,19 +5037,19 @@
         <v>1609146</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1544796</v>
+        <v>1535823</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1682588</v>
+        <v>1679643</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2319460962657012</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2226706181950796</v>
+        <v>0.2213771181368152</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2425322286971933</v>
+        <v>0.2421077825981377</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>440231</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>403354</v>
+        <v>402524</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>486205</v>
+        <v>484972</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1293126853345217</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1184803262576908</v>
+        <v>0.1182364988752708</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1428169960980832</v>
+        <v>0.1424546725436308</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>286</v>
@@ -5087,19 +5087,19 @@
         <v>310911</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>276412</v>
+        <v>278404</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>345118</v>
+        <v>345557</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08799712865912482</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07823290554189659</v>
+        <v>0.07879673853365006</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09767888818231704</v>
+        <v>0.09780306350653725</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>701</v>
@@ -5108,19 +5108,19 @@
         <v>751142</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>698725</v>
+        <v>702077</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>810824</v>
+        <v>809739</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1082713994383636</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1007158694267106</v>
+        <v>0.1011990355330771</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1168741303719838</v>
+        <v>0.1167176835427353</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>1455424</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1393045</v>
+        <v>1403612</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1513293</v>
+        <v>1526842</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4275131809549757</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4091902335768705</v>
+        <v>0.4122941119403982</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4445115141580078</v>
+        <v>0.4484913835403756</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>902</v>
@@ -5158,19 +5158,19 @@
         <v>975949</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>923397</v>
+        <v>921079</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1031468</v>
+        <v>1032829</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2762232889223921</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2613493399301979</v>
+        <v>0.2606931838317939</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2919368703935448</v>
+        <v>0.2923220396842513</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2255</v>
@@ -5179,19 +5179,19 @@
         <v>2431373</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2344310</v>
+        <v>2353237</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2511016</v>
+        <v>2521661</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3504639015160729</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3379144333611538</v>
+        <v>0.3392011840395212</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3619438449227278</v>
+        <v>0.3634781954313011</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>114936</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>96737</v>
+        <v>94939</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>138453</v>
+        <v>137822</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1020817783122556</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08591782002217263</v>
+        <v>0.08432090162383982</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1229692191705549</v>
+        <v>0.1224084851527185</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>210</v>
@@ -5544,19 +5544,19 @@
         <v>224143</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>198811</v>
+        <v>198238</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>254536</v>
+        <v>252984</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1784795213003337</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1583083659512748</v>
+        <v>0.1578516543850445</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2026803592649863</v>
+        <v>0.2014451234611053</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>315</v>
@@ -5565,19 +5565,19 @@
         <v>339079</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>304611</v>
+        <v>306152</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>376174</v>
+        <v>375392</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1423644531108608</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1278928470792674</v>
+        <v>0.1285396497642429</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1579387891711677</v>
+        <v>0.1576108449344882</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>206417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>179679</v>
+        <v>181173</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>233456</v>
+        <v>232887</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1833318019006997</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1595839669607443</v>
+        <v>0.1609110224071913</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.207347161635199</v>
+        <v>0.2068419370604168</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>357</v>
@@ -5615,19 +5615,19 @@
         <v>370442</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>338739</v>
+        <v>341138</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>404227</v>
+        <v>404458</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2949739822028145</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2697292507652665</v>
+        <v>0.271639825832831</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3218758667753691</v>
+        <v>0.3220596887973514</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>553</v>
@@ -5636,19 +5636,19 @@
         <v>576859</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>536475</v>
+        <v>534719</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>623599</v>
+        <v>619928</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2421980126946381</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2252423879154077</v>
+        <v>0.2245052429812214</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2618217523303948</v>
+        <v>0.2602807614057954</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>224848</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>197059</v>
+        <v>198445</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>253219</v>
+        <v>255774</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1997014910512701</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1750205108199151</v>
+        <v>0.1762511547906149</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2249001078348102</v>
+        <v>0.2271686665377234</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>237</v>
@@ -5686,19 +5686,19 @@
         <v>245055</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>216947</v>
+        <v>219918</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>275552</v>
+        <v>278139</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1951310538117963</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1727490642740403</v>
+        <v>0.1751150658719676</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2194151473618962</v>
+        <v>0.2214753599037443</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>451</v>
@@ -5707,19 +5707,19 @@
         <v>469903</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>431693</v>
+        <v>434360</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>514804</v>
+        <v>507852</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1972916104735953</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1812487683488414</v>
+        <v>0.1823685967897271</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2161435233780444</v>
+        <v>0.2132248233396869</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>101131</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80761</v>
+        <v>82265</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>120988</v>
+        <v>122371</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08982127204478356</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07172933110433109</v>
+        <v>0.07306446348352431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1074572457074531</v>
+        <v>0.1086852089087759</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -5757,19 +5757,19 @@
         <v>88698</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70559</v>
+        <v>71566</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108400</v>
+        <v>109552</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07062829194141963</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05618423479772192</v>
+        <v>0.05698618955053395</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08631601127548809</v>
+        <v>0.08723373331053276</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>179</v>
@@ -5778,19 +5778,19 @@
         <v>189830</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>165454</v>
+        <v>164347</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>216457</v>
+        <v>219513</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07970127967746246</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06946668102347726</v>
+        <v>0.06900215592514912</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09088086709882046</v>
+        <v>0.09216398665634133</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>478587</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>445290</v>
+        <v>446441</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>514115</v>
+        <v>514507</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4250636566909912</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3954900879579989</v>
+        <v>0.3965126301012121</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4566182327531649</v>
+        <v>0.4569660842787767</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>297</v>
@@ -5828,19 +5828,19 @@
         <v>327509</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>295243</v>
+        <v>297666</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>359306</v>
+        <v>361699</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.260787150743636</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2350946558385802</v>
+        <v>0.2370240335565494</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2861062992582468</v>
+        <v>0.288011837695211</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>751</v>
@@ -5849,19 +5849,19 @@
         <v>806097</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>754875</v>
+        <v>763332</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>853525</v>
+        <v>851441</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3384446440434434</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3169389111906248</v>
+        <v>0.320489525391999</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3583579340412368</v>
+        <v>0.3574827446095965</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>79500</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63590</v>
+        <v>61087</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99026</v>
+        <v>97146</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08777497213126455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07020962202127769</v>
+        <v>0.06744582345376435</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1093334965853674</v>
+        <v>0.107258384205233</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>148</v>
@@ -5974,19 +5974,19 @@
         <v>156443</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>132144</v>
+        <v>133280</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>179209</v>
+        <v>181977</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1558002023982606</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1316003640202176</v>
+        <v>0.1327321284007032</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1784721603226292</v>
+        <v>0.1812285688582092</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>221</v>
@@ -5995,19 +5995,19 @@
         <v>235943</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>204633</v>
+        <v>204783</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>267201</v>
+        <v>264778</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1235400926411895</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1071458296324559</v>
+        <v>0.107224472525279</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1399065484241881</v>
+        <v>0.1386382937269594</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>235967</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>212833</v>
+        <v>211182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>262274</v>
+        <v>260742</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2605286238456015</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2349863347062624</v>
+        <v>0.2331641030262881</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2895744857396615</v>
+        <v>0.2878825590454629</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>285</v>
@@ -6045,19 +6045,19 @@
         <v>297050</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>269600</v>
+        <v>266829</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330768</v>
+        <v>325342</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2958286941664435</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2684917947685753</v>
+        <v>0.26573208687503</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3294081121770353</v>
+        <v>0.3240043007048119</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>510</v>
@@ -6066,19 +6066,19 @@
         <v>533017</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>490818</v>
+        <v>490708</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>570803</v>
+        <v>572979</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2790880798603543</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2569927327957623</v>
+        <v>0.2569352846945787</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.298872909691237</v>
+        <v>0.3000123905593134</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>217654</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>191781</v>
+        <v>194591</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>244660</v>
+        <v>245987</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2403094851388308</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2117433136978364</v>
+        <v>0.2148459914795735</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2701268989556623</v>
+        <v>0.271592137134873</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>237</v>
@@ -6116,19 +6116,19 @@
         <v>249127</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>221451</v>
+        <v>220911</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>277862</v>
+        <v>276789</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2481027039025616</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2205410629006314</v>
+        <v>0.2200030089696844</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2767194640667117</v>
+        <v>0.2756512445977537</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>453</v>
@@ -6137,19 +6137,19 @@
         <v>466781</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>431507</v>
+        <v>431266</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>504908</v>
+        <v>508538</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.244406867935641</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2259375565033977</v>
+        <v>0.225811102244098</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2643701705262801</v>
+        <v>0.2662712939946861</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>72540</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57292</v>
+        <v>56139</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90335</v>
+        <v>90930</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08009059983106613</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06325517898976933</v>
+        <v>0.06198231646994385</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09973745132426115</v>
+        <v>0.1003953608099157</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -6187,19 +6187,19 @@
         <v>59098</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44734</v>
+        <v>46128</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74400</v>
+        <v>75373</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0588552938808948</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04454990412531846</v>
+        <v>0.04593865369290911</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07409447819716744</v>
+        <v>0.0750631003277592</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>129</v>
@@ -6208,19 +6208,19 @@
         <v>131638</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>112280</v>
+        <v>113469</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>156543</v>
+        <v>157378</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06892587060645249</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05878967678061538</v>
+        <v>0.05941230222184852</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08196623911547107</v>
+        <v>0.08240345335450824</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>300063</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>271507</v>
+        <v>271367</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>328313</v>
+        <v>328937</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.331296319053237</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2997681183238559</v>
+        <v>0.2996133371056868</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.362486890040541</v>
+        <v>0.363176376790838</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>221</v>
@@ -6258,19 +6258,19 @@
         <v>242410</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>214380</v>
+        <v>213039</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>270323</v>
+        <v>271851</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2414131056518395</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.213498716811356</v>
+        <v>0.2121631646857909</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2692121687043094</v>
+        <v>0.2707329549101214</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>514</v>
@@ -6279,19 +6279,19 @@
         <v>542472</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>502725</v>
+        <v>501913</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>582387</v>
+        <v>581930</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2840390889563628</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2632274446290334</v>
+        <v>0.2628023144636948</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3049383881223663</v>
+        <v>0.3046990477620409</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>80736</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64345</v>
+        <v>64307</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99363</v>
+        <v>100486</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09824486488364276</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07829992916035959</v>
+        <v>0.07825277015536566</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1209121601155639</v>
+        <v>0.1222785131867172</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>119</v>
@@ -6404,19 +6404,19 @@
         <v>127331</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>106205</v>
+        <v>108830</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>148361</v>
+        <v>149902</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1651380910529161</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1377396184199876</v>
+        <v>0.1411431464797266</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1924116990624405</v>
+        <v>0.1944102757937273</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>194</v>
@@ -6425,19 +6425,19 @@
         <v>208067</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>181608</v>
+        <v>182721</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>235972</v>
+        <v>237250</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1306264041302861</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1140155153545331</v>
+        <v>0.1147140742138486</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1481454486865507</v>
+        <v>0.148948024266439</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>185245</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>162748</v>
+        <v>161905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>212096</v>
+        <v>210376</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2254192325579258</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1980424623666998</v>
+        <v>0.197017195367218</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2580926007946492</v>
+        <v>0.2559994879306139</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>240</v>
@@ -6475,19 +6475,19 @@
         <v>245145</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>219245</v>
+        <v>220690</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>269437</v>
+        <v>270910</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3179331834995115</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2843433365208605</v>
+        <v>0.2862166544163792</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.349436970053613</v>
+        <v>0.3513484008450038</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>415</v>
@@ -6496,19 +6496,19 @@
         <v>430390</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>396044</v>
+        <v>394666</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>472327</v>
+        <v>467265</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2702032010526768</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2486403660506498</v>
+        <v>0.2477747913985146</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2965311636773053</v>
+        <v>0.2933536813186404</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>231609</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>205278</v>
+        <v>204210</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>255300</v>
+        <v>256442</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2818384047931841</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2497969165275268</v>
+        <v>0.2484972052750394</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3106667939494895</v>
+        <v>0.3120558342639269</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>150</v>
@@ -6546,19 +6546,19 @@
         <v>158425</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>138198</v>
+        <v>135543</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>182091</v>
+        <v>181651</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2054646555100652</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1792316497800623</v>
+        <v>0.1757874886336495</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2361565351394201</v>
+        <v>0.2355868887329264</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>371</v>
@@ -6567,19 +6567,19 @@
         <v>390035</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>353455</v>
+        <v>355079</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>422614</v>
+        <v>425872</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.244867552863178</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2219023960819802</v>
+        <v>0.2229221167844859</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2653212503157448</v>
+        <v>0.2673662462321964</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>69707</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53119</v>
+        <v>55540</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88476</v>
+        <v>88896</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08482474219791253</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06463923803421202</v>
+        <v>0.06758513174412793</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.107663998159336</v>
+        <v>0.1081753776264634</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -6617,19 +6617,19 @@
         <v>35436</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25414</v>
+        <v>23922</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49314</v>
+        <v>49048</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04595693526109729</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03296013100283585</v>
+        <v>0.03102495390435489</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06395620011260929</v>
+        <v>0.06361143401432939</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>98</v>
@@ -6638,19 +6638,19 @@
         <v>105143</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>85150</v>
+        <v>85648</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>126855</v>
+        <v>128051</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06600969188817638</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05345771822564847</v>
+        <v>0.05377066300473033</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07964063061115122</v>
+        <v>0.0803914981634995</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>254483</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>227474</v>
+        <v>228698</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>282820</v>
+        <v>283882</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3096727555673349</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2768059534325057</v>
+        <v>0.2782957767328202</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3441546686068836</v>
+        <v>0.3454473715535944</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>186</v>
@@ -6688,19 +6688,19 @@
         <v>204722</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>178684</v>
+        <v>179380</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>228752</v>
+        <v>230401</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2655071346764099</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2317379576575514</v>
+        <v>0.2326407581063998</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2966723014790602</v>
+        <v>0.2988112838066451</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>435</v>
@@ -6709,19 +6709,19 @@
         <v>459205</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>424625</v>
+        <v>423547</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>498153</v>
+        <v>495822</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2882931500656827</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2665833008249396</v>
+        <v>0.2659070400737983</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3127449994271234</v>
+        <v>0.311281959447151</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>70332</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53782</v>
+        <v>56067</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87931</v>
+        <v>88389</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1404950147892931</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1074345900387454</v>
+        <v>0.1119984057923349</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.175650545166564</v>
+        <v>0.176566577612396</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>110</v>
@@ -6834,19 +6834,19 @@
         <v>119266</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>99168</v>
+        <v>99631</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>137261</v>
+        <v>138964</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2445703032152147</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2033558077074425</v>
+        <v>0.2043056014560043</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2814703630165116</v>
+        <v>0.2849637232693712</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>172</v>
@@ -6855,19 +6855,19 @@
         <v>189598</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>163152</v>
+        <v>161159</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>215540</v>
+        <v>215083</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1918510602403794</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1650902291057792</v>
+        <v>0.1630744766802218</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2181014955208968</v>
+        <v>0.2176391974803256</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>111549</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>94140</v>
+        <v>93392</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>131299</v>
+        <v>131886</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2228309681383696</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1880532447071115</v>
+        <v>0.1865607245354107</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2622836496204529</v>
+        <v>0.2634555906266651</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>109</v>
@@ -6905,19 +6905,19 @@
         <v>112422</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>96528</v>
+        <v>95154</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>133510</v>
+        <v>132002</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2305353782173641</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1979438110192157</v>
+        <v>0.1951253894967067</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.273779545724788</v>
+        <v>0.2706867086297912</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>214</v>
@@ -6926,19 +6926,19 @@
         <v>223971</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>197265</v>
+        <v>198565</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>250883</v>
+        <v>253821</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.226632716278345</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1996088785032622</v>
+        <v>0.2009248089014399</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2538636590713664</v>
+        <v>0.2568366874505512</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>77649</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>61324</v>
+        <v>61291</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>94683</v>
+        <v>94444</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1551117729617082</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1225002280070026</v>
+        <v>0.1224339605593728</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1891393501086676</v>
+        <v>0.1886619090821444</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>74</v>
@@ -6976,19 +6976,19 @@
         <v>79273</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>63668</v>
+        <v>62837</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>96129</v>
+        <v>95913</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1625597903308153</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1305588976370325</v>
+        <v>0.128854867391064</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1971239086466128</v>
+        <v>0.1966819118083589</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>146</v>
@@ -6997,19 +6997,19 @@
         <v>156922</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>135401</v>
+        <v>133467</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>182116</v>
+        <v>181417</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1587870038864882</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.137010284539941</v>
+        <v>0.1350529547743362</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1842803672504298</v>
+        <v>0.1835728746166995</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>32865</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22681</v>
+        <v>23310</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44976</v>
+        <v>46401</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06565047810677412</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04530853471520608</v>
+        <v>0.04656358822888796</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08984466807644526</v>
+        <v>0.09269043341297413</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -7047,19 +7047,19 @@
         <v>18565</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12098</v>
+        <v>11591</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28238</v>
+        <v>28465</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03806990908383628</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.024808249496241</v>
+        <v>0.02376827208389694</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05790491411614442</v>
+        <v>0.05837093447387023</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>49</v>
@@ -7068,19 +7068,19 @@
         <v>51430</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>38087</v>
+        <v>37968</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>67710</v>
+        <v>66305</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05204082131185685</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03853921468978818</v>
+        <v>0.03841888109338832</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06851455291726358</v>
+        <v>0.06709292987549657</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>208206</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>186932</v>
+        <v>183873</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>232041</v>
+        <v>230263</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.415911766003855</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3734147444270524</v>
+        <v>0.3673053565155641</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4635241863037355</v>
+        <v>0.45997232453668</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>142</v>
@@ -7118,19 +7118,19 @@
         <v>158130</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>137953</v>
+        <v>136472</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>181201</v>
+        <v>181547</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3242646191527696</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2828903211435678</v>
+        <v>0.2798529926070323</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.371575189050135</v>
+        <v>0.3722846342544186</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>337</v>
@@ -7139,19 +7139,19 @@
         <v>366335</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>333553</v>
+        <v>335205</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>397929</v>
+        <v>399227</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3706883982829305</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3375159608041818</v>
+        <v>0.3391879849988734</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4026572171442113</v>
+        <v>0.4039708722772405</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>345503</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>309553</v>
+        <v>309067</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>381851</v>
+        <v>381882</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1030115821701614</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09229290168013524</v>
+        <v>0.09214816851466348</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1138487457276424</v>
+        <v>0.113857814016361</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>587</v>
@@ -7264,19 +7264,19 @@
         <v>627184</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>580737</v>
+        <v>578225</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>674068</v>
+        <v>675206</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.178243527201714</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1650433602330058</v>
+        <v>0.1643296331879559</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1915678427437864</v>
+        <v>0.1918911265765586</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>902</v>
@@ -7285,19 +7285,19 @@
         <v>972687</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>913557</v>
+        <v>915568</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1032528</v>
+        <v>1035210</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1415288180412139</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1329251271673636</v>
+        <v>0.1332178314834335</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1502358425367594</v>
+        <v>0.1506261074538491</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>739178</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>688543</v>
+        <v>690347</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>787760</v>
+        <v>791462</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2203854702021182</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2052886680715654</v>
+        <v>0.2058263542502204</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.234870123802577</v>
+        <v>0.2359738255187624</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>991</v>
@@ -7335,19 +7335,19 @@
         <v>1025060</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>973983</v>
+        <v>972240</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1082262</v>
+        <v>1077885</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2913184322121682</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2768027229455762</v>
+        <v>0.2763073300884869</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3075751865273484</v>
+        <v>0.306331143756329</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1692</v>
@@ -7356,19 +7356,19 @@
         <v>1764238</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1695019</v>
+        <v>1696319</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1839779</v>
+        <v>1841678</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2567017136227507</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2466301959708933</v>
+        <v>0.2468193436022088</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2676932577989067</v>
+        <v>0.2679695318983785</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>751760</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>706870</v>
+        <v>703754</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>803899</v>
+        <v>802355</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.224136772120395</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2107528446794475</v>
+        <v>0.2098238724247286</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2396818966079327</v>
+        <v>0.2392216354063018</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>698</v>
@@ -7406,19 +7406,19 @@
         <v>731880</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>680557</v>
+        <v>687594</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>776822</v>
+        <v>776719</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2079979295581331</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1934119614250173</v>
+        <v>0.1954119523821368</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2207701948662509</v>
+        <v>0.2207409912886182</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1421</v>
@@ -7427,19 +7427,19 @@
         <v>1483641</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1414029</v>
+        <v>1415553</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1554826</v>
+        <v>1553033</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2158740107974529</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2057453235995937</v>
+        <v>0.2059670173911816</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2262317163156072</v>
+        <v>0.2259708210976886</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>276243</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>243741</v>
+        <v>244684</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>310407</v>
+        <v>310162</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.08236179629044978</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07267132201240591</v>
+        <v>0.07295222405819818</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09254775235099066</v>
+        <v>0.09247471479821637</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>193</v>
@@ -7477,19 +7477,19 @@
         <v>201797</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>174511</v>
+        <v>174707</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>230313</v>
+        <v>231004</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05735007039586999</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04959552038970181</v>
+        <v>0.04965118268482081</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06545415675096608</v>
+        <v>0.06565062617012619</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>455</v>
@@ -7498,19 +7498,19 @@
         <v>478041</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>437723</v>
+        <v>435706</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>522313</v>
+        <v>519483</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06955629796896419</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06369000573506733</v>
+        <v>0.06339647511017699</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07599801802830923</v>
+        <v>0.07558633798133781</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>1241339</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1185777</v>
+        <v>1183217</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1296804</v>
+        <v>1299885</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3701043792168757</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3535385116333258</v>
+        <v>0.3527753583826186</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3866413880862526</v>
+        <v>0.387559733687545</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>846</v>
@@ -7548,19 +7548,19 @@
         <v>932770</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>875858</v>
+        <v>882961</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>988106</v>
+        <v>990137</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2650900406321147</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2489159378019455</v>
+        <v>0.2509345988829847</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.280816273108122</v>
+        <v>0.2813936400418477</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2037</v>
@@ -7569,19 +7569,19 @@
         <v>2174109</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2098823</v>
+        <v>2094582</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2245183</v>
+        <v>2253223</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3163391595696183</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3053849019979578</v>
+        <v>0.3047677768843863</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3266806185741146</v>
+        <v>0.3278504672438122</v>
       </c>
     </row>
     <row r="33">
